--- a/aSYN.xlsx
+++ b/aSYN.xlsx
@@ -87,16 +87,16 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -284,20 +284,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -321,7 +317,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -353,7 +349,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,7 +381,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,11 +389,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,7 +409,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -498,10 +494,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H:H"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -513,31 +509,30 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -563,7 +558,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="3" t="n">
         <v>125</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -589,15 +584,21 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>112</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4.302959</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>1.429959</v>
+      </c>
       <c r="D4" s="0" t="n">
         <v>52.551057</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>18.970057</v>
+      </c>
       <c r="F4" s="0" t="n">
         <v>8.335959</v>
       </c>
@@ -609,7 +610,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="3" t="n">
         <v>82</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -635,7 +636,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -661,7 +662,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -687,7 +688,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="6" t="n">
         <v>85</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -713,7 +714,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="6" t="n">
         <v>79</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -728,12 +729,18 @@
       <c r="E9" s="0" t="n">
         <v>18.982057</v>
       </c>
+      <c r="F9" s="0" t="n">
+        <v>8.310959</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>122.896186923</v>
+      </c>
       <c r="H9" s="0" t="n">
         <v>178.051057</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="7" t="n">
         <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -759,7 +766,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -785,7 +792,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="9" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -811,7 +818,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="10" t="n">
         <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -837,21 +844,33 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="11" t="n">
         <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4.390959</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>1.460959</v>
+      </c>
       <c r="D14" s="0" t="n">
         <v>52.519057</v>
       </c>
+      <c r="E14" s="0" t="n">
+        <v>18.988057</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>8.317959</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>123.182186923</v>
+      </c>
       <c r="H14" s="0" t="n">
         <v>178.016057</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="n">
+      <c r="A15" s="12" t="n">
         <v>126</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -877,7 +896,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
+      <c r="A16" s="13" t="n">
         <v>88</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -903,7 +922,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="n">
+      <c r="A17" s="14" t="n">
         <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -929,7 +948,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="15" t="n">
         <v>120</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -955,7 +974,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="4" t="n">
         <v>130</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -981,7 +1000,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="n">
+      <c r="A20" s="16" t="n">
         <v>47</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -1007,12 +1026,21 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="n">
+      <c r="A21" s="15" t="n">
         <v>64</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>4.598959</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2.694959</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>54.352057</v>
       </c>
+      <c r="E21" s="0" t="n">
+        <v>40.936057</v>
+      </c>
       <c r="F21" s="0" t="n">
         <v>8.439959</v>
       </c>
@@ -1024,7 +1052,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -1050,7 +1078,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="n">
+      <c r="A23" s="9" t="n">
         <v>11</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -1076,7 +1104,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="n">
+      <c r="A24" s="18" t="n">
         <v>31</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -1102,7 +1130,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="n">
+      <c r="A25" s="15" t="n">
         <v>129</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -1128,7 +1156,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="8" t="n">
         <v>87</v>
       </c>
       <c r="B26" s="0" t="n">
@@ -1154,7 +1182,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="n">
+      <c r="A27" s="19" t="n">
         <v>114</v>
       </c>
       <c r="B27" s="0" t="n">
@@ -1180,7 +1208,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="n">
+      <c r="A28" s="20" t="n">
         <v>21</v>
       </c>
       <c r="B28" s="0" t="n">
@@ -1206,7 +1234,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="3" t="n">
         <v>77</v>
       </c>
       <c r="B29" s="0" t="n">
@@ -1232,7 +1260,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+      <c r="A30" s="4" t="n">
         <v>66</v>
       </c>
       <c r="B30" s="0" t="n">
@@ -1258,7 +1286,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="n">
+      <c r="A31" s="21" t="n">
         <v>26</v>
       </c>
       <c r="B31" s="0" t="n">
@@ -1284,7 +1312,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+      <c r="A32" s="6" t="n">
         <v>75</v>
       </c>
       <c r="B32" s="0" t="n">
@@ -1310,7 +1338,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
+      <c r="A33" s="8" t="n">
         <v>132</v>
       </c>
       <c r="B33" s="0" t="n">
@@ -1336,7 +1364,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="n">
+      <c r="A34" s="9" t="n">
         <v>98</v>
       </c>
       <c r="B34" s="0" t="n">
@@ -1362,7 +1390,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="n">
+      <c r="A35" s="9" t="n">
         <v>92</v>
       </c>
       <c r="B35" s="0" t="n">
@@ -1388,7 +1416,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="n">
+      <c r="A36" s="22" t="n">
         <v>65.2</v>
       </c>
       <c r="B36" s="0" t="n">
@@ -1414,7 +1442,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="n">
+      <c r="A37" s="23" t="n">
         <v>115</v>
       </c>
       <c r="B37" s="0" t="n">
@@ -1440,7 +1468,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B38" s="0" t="n">
@@ -1466,7 +1494,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="n">
+      <c r="A39" s="9" t="n">
         <v>55</v>
       </c>
       <c r="B39" s="0" t="n">
@@ -1492,7 +1520,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
+      <c r="A40" s="12" t="n">
         <v>32</v>
       </c>
       <c r="B40" s="0" t="n">
@@ -1518,7 +1546,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25" t="n">
+      <c r="A41" s="24" t="n">
         <v>5</v>
       </c>
       <c r="B41" s="0" t="n">
@@ -1544,7 +1572,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="n">
+      <c r="A42" s="9" t="n">
         <v>127</v>
       </c>
       <c r="B42" s="0" t="n">
@@ -1570,7 +1598,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26" t="n">
+      <c r="A43" s="25" t="n">
         <v>14</v>
       </c>
       <c r="B43" s="0" t="n">
@@ -1596,7 +1624,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="27" t="n">
+      <c r="A44" s="26" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="0" t="n">
@@ -1622,7 +1650,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="n">
+      <c r="A45" s="15" t="n">
         <v>25</v>
       </c>
       <c r="B45" s="0" t="n">
@@ -1648,7 +1676,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16" t="n">
+      <c r="A46" s="15" t="n">
         <v>119</v>
       </c>
       <c r="B46" s="0" t="n">
@@ -1674,7 +1702,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="25" t="n">
+      <c r="A47" s="24" t="n">
         <v>44</v>
       </c>
       <c r="B47" s="0" t="n">
@@ -1700,7 +1728,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="3" t="n">
         <v>42</v>
       </c>
       <c r="B48" s="0" t="n">
@@ -1726,7 +1754,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
+      <c r="A49" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B49" s="0" t="n">
@@ -1752,7 +1780,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24" t="n">
+      <c r="A50" s="23" t="n">
         <v>111</v>
       </c>
       <c r="B50" s="0" t="n">
@@ -1778,7 +1806,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24" t="n">
+      <c r="A51" s="23" t="n">
         <v>37</v>
       </c>
       <c r="B51" s="0" t="n">
@@ -1804,7 +1832,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="28" t="n">
+      <c r="A52" s="27" t="n">
         <v>33</v>
       </c>
       <c r="B52" s="0" t="n">
@@ -1830,7 +1858,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="29" t="n">
+      <c r="A53" s="28" t="n">
         <v>35</v>
       </c>
       <c r="B53" s="0" t="n">
@@ -1856,7 +1884,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="30" t="n">
+      <c r="A54" s="29" t="n">
         <v>17</v>
       </c>
       <c r="B54" s="0" t="n">
@@ -1882,7 +1910,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="30" t="n">
+      <c r="A55" s="29" t="n">
         <v>12</v>
       </c>
       <c r="B55" s="0" t="n">
@@ -1908,7 +1936,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="23" t="n">
+      <c r="A56" s="22" t="n">
         <v>103</v>
       </c>
       <c r="B56" s="0" t="n">
@@ -1960,7 +1988,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="2" t="n">
         <v>81</v>
       </c>
       <c r="B58" s="0" t="n">
@@ -1986,7 +2014,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+      <c r="A59" s="3" t="n">
         <v>100</v>
       </c>
       <c r="B59" s="0" t="n">
@@ -2012,7 +2040,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="n">
+      <c r="A60" s="8" t="n">
         <v>128</v>
       </c>
       <c r="B60" s="0" t="n">
@@ -2038,7 +2066,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="n">
+      <c r="A61" s="7" t="n">
         <v>117</v>
       </c>
       <c r="B61" s="0" t="n">
@@ -2064,7 +2092,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="n">
+      <c r="A62" s="8" t="n">
         <v>109</v>
       </c>
       <c r="B62" s="0" t="n">
@@ -2090,7 +2118,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="24" t="n">
+      <c r="A63" s="23" t="n">
         <v>99</v>
       </c>
       <c r="B63" s="0" t="n">
@@ -2116,7 +2144,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B64" s="0" t="n">
@@ -2142,7 +2170,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="n">
+      <c r="A65" s="10" t="n">
         <v>128</v>
       </c>
       <c r="B65" s="0" t="n">
@@ -2168,7 +2196,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="26" t="n">
+      <c r="A66" s="25" t="n">
         <v>107</v>
       </c>
       <c r="B66" s="0" t="n">
@@ -2194,7 +2222,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="n">
+      <c r="A67" s="11" t="n">
         <v>76</v>
       </c>
       <c r="B67" s="0" t="n">
@@ -2220,7 +2248,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="31" t="n">
+      <c r="A68" s="30" t="n">
         <v>76</v>
       </c>
       <c r="B68" s="0" t="n">
@@ -2246,7 +2274,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="n">
+      <c r="A69" s="4" t="n">
         <v>91</v>
       </c>
       <c r="B69" s="0" t="n">
@@ -2272,7 +2300,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="26" t="n">
+      <c r="A70" s="25" t="n">
         <v>113</v>
       </c>
       <c r="B70" s="0" t="n">
@@ -2298,7 +2326,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="19" t="n">
+      <c r="A71" s="18" t="n">
         <v>24</v>
       </c>
       <c r="B71" s="0" t="n">
@@ -2324,7 +2352,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="21" t="n">
+      <c r="A72" s="20" t="n">
         <v>53</v>
       </c>
       <c r="B72" s="0" t="n">
@@ -2350,7 +2378,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="32" t="n">
+      <c r="A73" s="31" t="n">
         <v>52</v>
       </c>
       <c r="B73" s="0" t="n">
@@ -2376,7 +2404,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="32" t="n">
+      <c r="A74" s="31" t="n">
         <v>4</v>
       </c>
       <c r="B74" s="0" t="n">
@@ -2402,7 +2430,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="2" t="n">
         <v>54</v>
       </c>
       <c r="B75" s="0" t="n">
@@ -2428,7 +2456,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B76" s="0" t="n">
@@ -2454,7 +2482,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
+      <c r="A77" s="3" t="n">
         <v>41</v>
       </c>
       <c r="B77" s="0" t="n">
@@ -2480,7 +2508,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B78" s="0" t="n">
@@ -2506,7 +2534,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="30" t="n">
+      <c r="A79" s="29" t="n">
         <v>16</v>
       </c>
       <c r="B79" s="0" t="n">
@@ -2532,7 +2560,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="n">
+      <c r="A80" s="7" t="n">
         <v>48</v>
       </c>
       <c r="B80" s="0" t="n">
@@ -2558,7 +2586,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="n">
+      <c r="A81" s="7" t="n">
         <v>89</v>
       </c>
       <c r="B81" s="0" t="n">
@@ -2584,7 +2612,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="n">
+      <c r="A82" s="8" t="n">
         <v>61</v>
       </c>
       <c r="B82" s="0" t="n">
@@ -2610,7 +2638,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="17" t="n">
+      <c r="A83" s="16" t="n">
         <v>6</v>
       </c>
       <c r="B83" s="0" t="n">
@@ -2636,7 +2664,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="24" t="n">
+      <c r="A84" s="23" t="n">
         <v>27</v>
       </c>
       <c r="B84" s="0" t="n">
@@ -2662,7 +2690,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11" t="n">
+      <c r="A85" s="10" t="n">
         <v>84</v>
       </c>
       <c r="B85" s="0" t="n">
@@ -2688,7 +2716,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="11" t="n">
+      <c r="A86" s="10" t="n">
         <v>124</v>
       </c>
       <c r="B86" s="0" t="n">
@@ -2714,7 +2742,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="26" t="n">
+      <c r="A87" s="25" t="n">
         <v>51</v>
       </c>
       <c r="B87" s="0" t="n">
@@ -2740,7 +2768,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="26" t="n">
+      <c r="A88" s="25" t="n">
         <v>23</v>
       </c>
       <c r="B88" s="0" t="n">
@@ -2766,7 +2794,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="13" t="n">
+      <c r="A89" s="12" t="n">
         <v>40</v>
       </c>
       <c r="B89" s="0" t="n">
@@ -2792,7 +2820,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="33" t="n">
+      <c r="A90" s="32" t="n">
         <v>110</v>
       </c>
       <c r="B90" s="0" t="n">
